--- a/public/master/sample_sanitasi.xlsx
+++ b/public/master/sample_sanitasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen3\Desktop\SANITASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A450B0-5BF0-458F-90EB-8539F7A6212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067B528-95B6-43B4-BC70-99A2D3CF970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1AA180D-F767-4128-BE13-8806895311ED}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>

--- a/public/master/sample_sanitasi.xlsx
+++ b/public/master/sample_sanitasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen3\Desktop\SANITASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067B528-95B6-43B4-BC70-99A2D3CF970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B704F7-ED57-44CD-A755-58D7E5A569E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1AA180D-F767-4128-BE13-8806895311ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>NO</t>
   </si>
@@ -39,9 +39,6 @@
     <t>NAMA KEGIATAN</t>
   </si>
   <si>
-    <t>LOKASI</t>
-  </si>
-  <si>
     <t>PAGU ANGGARAN</t>
   </si>
   <si>
@@ -60,33 +57,21 @@
     <t>Pembangunan tangki septik skala individual perdesaan 50 KK  Desa Merako Jaya Kecamatan Serawai</t>
   </si>
   <si>
-    <t>Desa Merako Kecamatan Serawai</t>
-  </si>
-  <si>
     <t>DAK</t>
   </si>
   <si>
     <t xml:space="preserve"> Pembangunan tangki septik skala individual perdesaan 50 KK Desa Nanga Sakai Kecamatan Ambalau</t>
   </si>
   <si>
-    <t>Desa Nanga Sakai Kecamatan Ambalau</t>
-  </si>
-  <si>
     <t>Pengadaan Sarana dan Prasarana Sanitasi Kelurahan Batu Lalau Kecamatan Sintang</t>
   </si>
   <si>
-    <t>Desa Batu Lalau Kecamatan Sintang</t>
-  </si>
-  <si>
     <t>DAU</t>
   </si>
   <si>
     <t>Pengadaan Sarana dan Prasarana Sanitasi Desa Sungai Ana Kecamatan Sintang</t>
   </si>
   <si>
-    <t>Desa Sungai Ana Kecamatan Sintang</t>
-  </si>
-  <si>
     <t>-6.237597594427549</t>
   </si>
   <si>
@@ -96,7 +81,31 @@
     <t>SUMBER ANGGARAN :</t>
   </si>
   <si>
-    <t>MASTER FORM IMPORT SANITASI</t>
+    <t>sungai TEBELIAN</t>
+  </si>
+  <si>
+    <t>BALAI AGUNG</t>
+  </si>
+  <si>
+    <t>MASTER FORM IMPORT PEMBANGUNAN</t>
+  </si>
+  <si>
+    <t>Ambalau</t>
+  </si>
+  <si>
+    <t>Dedai</t>
+  </si>
+  <si>
+    <t>Deme</t>
+  </si>
+  <si>
+    <t>Samak</t>
+  </si>
+  <si>
+    <t>KECAMATAN</t>
+  </si>
+  <si>
+    <t>KELURAHAN/DESA</t>
   </si>
 </sst>
 </file>
@@ -212,10 +221,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -533,207 +542,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8554F2-9B40-410B-9227-A7C1EF4F31C4}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>2024</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="9">
+        <v>625000000</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9">
-        <v>625000000</v>
-      </c>
-      <c r="F5" s="8">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>21</v>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2022</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="9">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9">
         <v>625000000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>50</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
-        <v>2026</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9">
+        <v>40000000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="J7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9">
-        <v>40000000</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="8" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
-        <v>2027</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2024</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="9">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9">
         <v>40000000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>21</v>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
